--- a/notebooks/Data/Star_Wars_Rebels/centrality.xlsx
+++ b/notebooks/Data/Star_Wars_Rebels/centrality.xlsx
@@ -58,615 +58,618 @@
     <t>Lando Calrissian</t>
   </si>
   <si>
+    <t>Unidentified Rebel technician (Phoenix Home)</t>
+  </si>
+  <si>
+    <t>Maketh Tua</t>
+  </si>
+  <si>
+    <t>Amda Wabo</t>
+  </si>
+  <si>
+    <t>Gooti Terez</t>
+  </si>
+  <si>
+    <t>Cad Bane</t>
+  </si>
+  <si>
+    <t>Gold Four (Archeon Nebula)</t>
+  </si>
+  <si>
+    <t>CC-2224</t>
+  </si>
+  <si>
+    <t>Cikatro Vizago</t>
+  </si>
+  <si>
+    <t>White Loth-wolf</t>
+  </si>
+  <si>
+    <t>Proach</t>
+  </si>
+  <si>
+    <t>R3-D3 (Homecoming)</t>
+  </si>
+  <si>
+    <t>Yoffar</t>
+  </si>
+  <si>
+    <t>CC-3636</t>
+  </si>
+  <si>
+    <t>Hera Syndulla's mother</t>
+  </si>
+  <si>
+    <t>Kalani (super tactical droid)</t>
+  </si>
+  <si>
+    <t>Numa</t>
+  </si>
+  <si>
+    <t>Kanan Jarrus</t>
+  </si>
+  <si>
+    <t>Dicer</t>
+  </si>
+  <si>
+    <t>Unidentified Imperial technician (Tellstar)</t>
+  </si>
+  <si>
+    <t>Darja</t>
+  </si>
+  <si>
+    <t>Tiber Saxon</t>
+  </si>
+  <si>
+    <t>Rukh</t>
+  </si>
+  <si>
+    <t>Unidentified stormtrooper (Kessel)</t>
+  </si>
+  <si>
+    <t>Unidentified female intelligence officer</t>
+  </si>
+  <si>
+    <t>Tarre Vizsla</t>
+  </si>
+  <si>
+    <t>Unidentified Stormtrooper officer (Lothal Capital City)</t>
+  </si>
+  <si>
+    <t>Brunson</t>
+  </si>
+  <si>
+    <t>Jai Kell's mother</t>
+  </si>
+  <si>
+    <t>Jho</t>
+  </si>
+  <si>
+    <t>Beru Whitesun Lars</t>
+  </si>
+  <si>
+    <t>Nazhros Oleg</t>
+  </si>
+  <si>
+    <t>Valen Rudor</t>
+  </si>
+  <si>
+    <t>264</t>
+  </si>
+  <si>
+    <t>Mich Matt</t>
+  </si>
+  <si>
+    <t>Anakin Skywalker</t>
+  </si>
+  <si>
+    <t>Comet (clone trooper)</t>
+  </si>
+  <si>
+    <t>Phoenix One (Siege of Lothal)</t>
+  </si>
+  <si>
+    <t>Unidentified Ugnaught scrap merchant</t>
+  </si>
+  <si>
+    <t>Bendu</t>
+  </si>
+  <si>
+    <t>B1-268</t>
+  </si>
+  <si>
+    <t>Klik-Klak</t>
+  </si>
+  <si>
+    <t>Presence</t>
+  </si>
+  <si>
+    <t>Tsoklo</t>
+  </si>
+  <si>
+    <t>Eesh Fahm</t>
+  </si>
+  <si>
+    <t>Myles Grint</t>
+  </si>
+  <si>
+    <t>Jai Kell</t>
+  </si>
+  <si>
+    <t>Quarrie</t>
+  </si>
+  <si>
+    <t>Big Bongo</t>
+  </si>
+  <si>
+    <t>Finn</t>
+  </si>
+  <si>
+    <t>Anger</t>
+  </si>
+  <si>
+    <t>Jan Dodonna</t>
+  </si>
+  <si>
+    <t>Obi-Wan Kenobi</t>
+  </si>
+  <si>
+    <t>Unidentified Stormtrooper 3 (Imperial Complex)</t>
+  </si>
+  <si>
+    <t>HoloNet News</t>
+  </si>
+  <si>
+    <t>MB-223</t>
+  </si>
+  <si>
+    <t>Purrgil King</t>
+  </si>
+  <si>
+    <t>Rex</t>
+  </si>
+  <si>
+    <t>Alora (child)</t>
+  </si>
+  <si>
+    <t>Unidentified Rebel transport captain</t>
+  </si>
+  <si>
+    <t>Dhara Leonis</t>
+  </si>
+  <si>
+    <t>Sabine Wren</t>
+  </si>
+  <si>
+    <t>Mitth'raw'nuruodo</t>
+  </si>
+  <si>
+    <t>Ursa Wren</t>
+  </si>
+  <si>
+    <t>Karina the Great (Age of the Empire)</t>
+  </si>
+  <si>
+    <t>Wullffwarro</t>
+  </si>
+  <si>
+    <t>Unidentified Imperial officer (Concord Dawn)</t>
+  </si>
+  <si>
+    <t>Unidentified Imperial officer (Seelos system)</t>
+  </si>
+  <si>
+    <t>Marida Sumar</t>
+  </si>
+  <si>
+    <t>Tristan Wren</t>
+  </si>
+  <si>
+    <t>Max Rebo</t>
+  </si>
+  <si>
+    <t>Gobi Glie</t>
+  </si>
+  <si>
+    <t>Father (Mortis)</t>
+  </si>
+  <si>
+    <t>Unidentified death trooper</t>
+  </si>
+  <si>
+    <t>Boost</t>
+  </si>
+  <si>
+    <t>Boil</t>
+  </si>
+  <si>
+    <t>Qui-Gon Jinn</t>
+  </si>
+  <si>
+    <t>Styles</t>
+  </si>
+  <si>
+    <t>JTN-303</t>
+  </si>
+  <si>
+    <t>Padmé Amidala</t>
+  </si>
+  <si>
+    <t>R4-C2</t>
+  </si>
+  <si>
+    <t>Joy</t>
+  </si>
+  <si>
+    <t>LS-412</t>
+  </si>
+  <si>
+    <t>C-3PO</t>
+  </si>
+  <si>
+    <t>Jabba Desilijic Tiure</t>
+  </si>
+  <si>
+    <t>LS-261</t>
+  </si>
+  <si>
+    <t>Unidentified stormtrooper corporal</t>
+  </si>
+  <si>
+    <t>Mace Windu</t>
+  </si>
+  <si>
+    <t>Chava</t>
+  </si>
+  <si>
+    <t>Unidentified RX-Series pilot droid (Garel)</t>
+  </si>
+  <si>
+    <t>Tojnun</t>
+  </si>
+  <si>
+    <t>Alexsandr Kallus</t>
+  </si>
+  <si>
+    <t>Savage Opress</t>
+  </si>
+  <si>
+    <t>Eighth Brother</t>
+  </si>
+  <si>
+    <t>Azmorigan</t>
+  </si>
+  <si>
+    <t>Unidentified Imperial officer (Tellstar)</t>
+  </si>
+  <si>
     <t>Wells</t>
   </si>
   <si>
-    <t>Maketh Tua</t>
-  </si>
-  <si>
-    <t>Amda Wabo</t>
-  </si>
-  <si>
-    <t>Gooti Terez</t>
-  </si>
-  <si>
-    <t>Cad Bane</t>
-  </si>
-  <si>
-    <t>Gold Four (Archeon Nebula)</t>
-  </si>
-  <si>
-    <t>CC-2224</t>
-  </si>
-  <si>
-    <t>Cikatro Vizago</t>
-  </si>
-  <si>
-    <t>White Loth-wolf</t>
-  </si>
-  <si>
-    <t>Proach</t>
-  </si>
-  <si>
-    <t>R3-D3 (Homecoming)</t>
-  </si>
-  <si>
-    <t>Yoffar</t>
-  </si>
-  <si>
-    <t>CC-3636</t>
-  </si>
-  <si>
-    <t>Hera Syndulla's mother</t>
-  </si>
-  <si>
-    <t>Kalani (super tactical droid)</t>
-  </si>
-  <si>
-    <t>Numa</t>
-  </si>
-  <si>
-    <t>Kanan Jarrus</t>
-  </si>
-  <si>
-    <t>Dicer</t>
-  </si>
-  <si>
-    <t>Unidentified Imperial technician (Tellstar)</t>
-  </si>
-  <si>
-    <t>Darja</t>
-  </si>
-  <si>
-    <t>Tiber Saxon</t>
-  </si>
-  <si>
-    <t>Rukh</t>
-  </si>
-  <si>
-    <t>Unidentified stormtrooper (Kessel)</t>
-  </si>
-  <si>
-    <t>Unidentified female intelligence officer</t>
-  </si>
-  <si>
-    <t>Tarre Vizsla</t>
-  </si>
-  <si>
-    <t>Unidentified Stormtrooper officer (Lothal Capital City)</t>
-  </si>
-  <si>
-    <t>Brunson</t>
-  </si>
-  <si>
-    <t>Jai Kell's mother</t>
-  </si>
-  <si>
-    <t>Jho</t>
-  </si>
-  <si>
-    <t>Beru Whitesun Lars</t>
-  </si>
-  <si>
-    <t>Nazhros Oleg</t>
-  </si>
-  <si>
-    <t>Valen Rudor</t>
-  </si>
-  <si>
-    <t>264</t>
-  </si>
-  <si>
-    <t>Mich Matt</t>
-  </si>
-  <si>
-    <t>Anakin Skywalker</t>
-  </si>
-  <si>
-    <t>Comet (clone trooper)</t>
-  </si>
-  <si>
-    <t>Phoenix One (Siege of Lothal)</t>
-  </si>
-  <si>
-    <t>Unidentified Ugnaught scrap merchant</t>
-  </si>
-  <si>
-    <t>Bendu</t>
-  </si>
-  <si>
-    <t>B1-268</t>
-  </si>
-  <si>
-    <t>Klik-Klak</t>
-  </si>
-  <si>
-    <t>Presence</t>
-  </si>
-  <si>
-    <t>Jai Kell</t>
-  </si>
-  <si>
-    <t>Eesh Fahm</t>
-  </si>
-  <si>
-    <t>Myles Grint</t>
-  </si>
-  <si>
-    <t>Tsoklo</t>
-  </si>
-  <si>
-    <t>Quarrie</t>
-  </si>
-  <si>
-    <t>Unidentified Rebel technician (Phoenix Home)</t>
-  </si>
-  <si>
-    <t>Big Bongo</t>
-  </si>
-  <si>
-    <t>Finn</t>
-  </si>
-  <si>
-    <t>Anger</t>
-  </si>
-  <si>
-    <t>Jan Dodonna</t>
-  </si>
-  <si>
-    <t>Obi-Wan Kenobi</t>
-  </si>
-  <si>
-    <t>Unidentified Stormtrooper 3 (Imperial Complex)</t>
-  </si>
-  <si>
-    <t>HoloNet News</t>
-  </si>
-  <si>
-    <t>MB-223</t>
-  </si>
-  <si>
-    <t>Purrgil King</t>
-  </si>
-  <si>
-    <t>Rex</t>
-  </si>
-  <si>
-    <t>Alora (child)</t>
-  </si>
-  <si>
     <t>Unidentified Iktotchi Jedi</t>
   </si>
   <si>
-    <t>Dhara Leonis</t>
-  </si>
-  <si>
-    <t>Sabine Wren</t>
-  </si>
-  <si>
-    <t>Mitth'raw'nuruodo</t>
-  </si>
-  <si>
-    <t>Ursa Wren</t>
-  </si>
-  <si>
-    <t>Karina the Great (Age of the Empire)</t>
-  </si>
-  <si>
-    <t>Wullffwarro</t>
-  </si>
-  <si>
-    <t>Unidentified Imperial officer (Concord Dawn)</t>
-  </si>
-  <si>
-    <t>Unidentified Imperial officer (Seelos system)</t>
-  </si>
-  <si>
-    <t>Marida Sumar</t>
-  </si>
-  <si>
-    <t>Tristan Wren</t>
-  </si>
-  <si>
-    <t>Max Rebo</t>
-  </si>
-  <si>
-    <t>Gobi Glie</t>
+    <t>Uzall</t>
+  </si>
+  <si>
+    <t>Unidentified Imperial officer (Sovereign)</t>
+  </si>
+  <si>
+    <t>Moota Engatoo</t>
+  </si>
+  <si>
+    <t>BN-749</t>
+  </si>
+  <si>
+    <t>Jyn Erso</t>
+  </si>
+  <si>
+    <t>Green Leader (Atollon)</t>
+  </si>
+  <si>
+    <t>Duke (pilot)</t>
+  </si>
+  <si>
+    <t>Giles</t>
+  </si>
+  <si>
+    <t>Alton Kastle</t>
+  </si>
+  <si>
+    <t>Gold Two (rebellion)</t>
+  </si>
+  <si>
+    <t>TK-626</t>
+  </si>
+  <si>
+    <t>Ryder Azadi</t>
+  </si>
+  <si>
+    <t>Unidentified Stormtrooper Commander (Imperial Complex)</t>
+  </si>
+  <si>
+    <t>Unidentified Stormtrooper 1 (Freighter 2716)</t>
+  </si>
+  <si>
+    <t>Kassius Konstantine</t>
+  </si>
+  <si>
+    <t>Boscoface</t>
+  </si>
+  <si>
+    <t>Hark</t>
+  </si>
+  <si>
+    <t>Arihnda Pryce</t>
+  </si>
+  <si>
+    <t>Mira Bridger</t>
+  </si>
+  <si>
+    <t>Tyson (Gold Squadron)</t>
+  </si>
+  <si>
+    <t>Unidentified rebel crewman</t>
+  </si>
+  <si>
+    <t>Unidentified rebel trooper (Chopper Base)</t>
+  </si>
+  <si>
+    <t>Cham Syndulla</t>
+  </si>
+  <si>
+    <t>Slavin</t>
+  </si>
+  <si>
+    <t>Seevor</t>
+  </si>
+  <si>
+    <t>EXD-9</t>
+  </si>
+  <si>
+    <t>Ketsu Onyo</t>
+  </si>
+  <si>
+    <t>Maz Kanata</t>
+  </si>
+  <si>
+    <t>Yoda</t>
+  </si>
+  <si>
+    <t>Bo-Katan Kryze</t>
+  </si>
+  <si>
+    <t>Terba</t>
+  </si>
+  <si>
+    <t>Ahsoka Tano</t>
+  </si>
+  <si>
+    <t>Chirrut Îmwe</t>
+  </si>
+  <si>
+    <t>Sinker</t>
+  </si>
+  <si>
+    <t>Wedge Antilles</t>
+  </si>
+  <si>
+    <t>Oora</t>
+  </si>
+  <si>
+    <t>AP-5</t>
+  </si>
+  <si>
+    <t>White Loth-cat</t>
+  </si>
+  <si>
+    <t>Rey</t>
+  </si>
+  <si>
+    <t>Zare Leonis</t>
+  </si>
+  <si>
+    <t>Unidentified Rebel pilot (Liberator)</t>
+  </si>
+  <si>
+    <t>Saw Gerrera</t>
+  </si>
+  <si>
+    <t>writing</t>
+  </si>
+  <si>
+    <t>W1-LE</t>
+  </si>
+  <si>
+    <t>Phoenix Leader (Ibaar)</t>
+  </si>
+  <si>
+    <t>EG-86</t>
+  </si>
+  <si>
+    <t>R2-D2</t>
+  </si>
+  <si>
+    <t>Vaux</t>
+  </si>
+  <si>
+    <t>Hondo Ohnaka</t>
+  </si>
+  <si>
+    <t>LS-005</t>
+  </si>
+  <si>
+    <t>Unidentified Imperial Jumptrooper Commander</t>
+  </si>
+  <si>
+    <t>Poe Dameron</t>
+  </si>
+  <si>
+    <t>Talzin</t>
+  </si>
+  <si>
+    <t>Ben Quadinaros</t>
+  </si>
+  <si>
+    <t>Cumberlayne Aresko</t>
+  </si>
+  <si>
+    <t>LS-21</t>
+  </si>
+  <si>
+    <t>Wullf Yularen</t>
+  </si>
+  <si>
+    <t>Daughter</t>
+  </si>
+  <si>
+    <t>Unidentified Rodian fruit vendor</t>
+  </si>
+  <si>
+    <t>Jon Vander</t>
+  </si>
+  <si>
+    <t>Pellaeon</t>
+  </si>
+  <si>
+    <t>Brom Titus</t>
+  </si>
+  <si>
+    <t>Unidentified female Rodian (Crawler 413-24)</t>
+  </si>
+  <si>
+    <t>Unidentified stormtrooper (Lyste's ship)</t>
+  </si>
+  <si>
+    <t>Serenity</t>
+  </si>
+  <si>
+    <t>Veris Hydan</t>
+  </si>
+  <si>
+    <t>CC-10/994</t>
+  </si>
+  <si>
+    <t>Darth Vader</t>
+  </si>
+  <si>
+    <t>Mart Mattin</t>
+  </si>
+  <si>
+    <t>Unidentified Stormtrooper commander (Crawler 413-24)</t>
+  </si>
+  <si>
+    <t>BG-81</t>
+  </si>
+  <si>
+    <t>Bail Organa</t>
+  </si>
+  <si>
+    <t>Unidentified Lasat mercenary</t>
+  </si>
+  <si>
+    <t>Alrich Wren</t>
+  </si>
+  <si>
+    <t>Unidentified Imperial scanning technician</t>
+  </si>
+  <si>
+    <t>Tseebo</t>
+  </si>
+  <si>
+    <t>Unidentified Imperial officer (Garel)</t>
+  </si>
+  <si>
+    <t>Rangthang</t>
+  </si>
+  <si>
+    <t>Woldar</t>
+  </si>
+  <si>
+    <t>Orson Callan Krennic</t>
+  </si>
+  <si>
+    <t>Ephraim Bridger</t>
+  </si>
+  <si>
+    <t>3-6</t>
+  </si>
+  <si>
+    <t>Dasha Sigweed</t>
+  </si>
+  <si>
+    <t>Rake Gahree</t>
+  </si>
+  <si>
+    <t>Unidentified Lasat Honor Guard</t>
+  </si>
+  <si>
+    <t>Gall Trayvis</t>
+  </si>
+  <si>
+    <t>Unidentified Imperial officer (Ibaar)</t>
+  </si>
+  <si>
+    <t>Derek Klivian</t>
+  </si>
+  <si>
+    <t>Garazeb Orrelios</t>
+  </si>
+  <si>
+    <t>R3-A3</t>
+  </si>
+  <si>
+    <t>Darth Sidious</t>
+  </si>
+  <si>
+    <t>Unidentified humanoid Jedi</t>
+  </si>
+  <si>
+    <t>Dume (Loth-wolf)</t>
+  </si>
+  <si>
+    <t>LT-319</t>
+  </si>
+  <si>
+    <t>Satine Kryze</t>
+  </si>
+  <si>
+    <t>PZ-7</t>
+  </si>
+  <si>
+    <t>Edrio</t>
+  </si>
+  <si>
+    <t>Unidentified Imperial transport captain</t>
+  </si>
+  <si>
+    <t>Seventh Sister</t>
+  </si>
+  <si>
+    <t>Pypey</t>
+  </si>
+  <si>
+    <t>LS-515</t>
+  </si>
+  <si>
+    <t>Sadness</t>
+  </si>
+  <si>
+    <t>Unidentified rebel trooper</t>
+  </si>
+  <si>
+    <t>LS-757</t>
+  </si>
+  <si>
+    <t>Erskin Semaj</t>
+  </si>
+  <si>
+    <t>Goran (instructor)</t>
   </si>
   <si>
     <t>Unidentified Rebel trooper (Phoenix Nest)</t>
   </si>
   <si>
-    <t>Unidentified death trooper</t>
-  </si>
-  <si>
-    <t>Boost</t>
-  </si>
-  <si>
-    <t>Boil</t>
-  </si>
-  <si>
-    <t>Qui-Gon Jinn</t>
-  </si>
-  <si>
-    <t>Styles</t>
-  </si>
-  <si>
-    <t>JTN-303</t>
-  </si>
-  <si>
-    <t>Padmé Amidala</t>
-  </si>
-  <si>
-    <t>R4-C2</t>
-  </si>
-  <si>
-    <t>Joy</t>
-  </si>
-  <si>
-    <t>LS-412</t>
-  </si>
-  <si>
-    <t>C-3PO</t>
-  </si>
-  <si>
-    <t>Jabba Desilijic Tiure</t>
-  </si>
-  <si>
-    <t>LS-261</t>
-  </si>
-  <si>
-    <t>Unidentified stormtrooper corporal</t>
-  </si>
-  <si>
-    <t>Mace Windu</t>
-  </si>
-  <si>
-    <t>Chava</t>
-  </si>
-  <si>
-    <t>Unidentified RX-Series pilot droid (Garel)</t>
-  </si>
-  <si>
-    <t>Tojnun</t>
-  </si>
-  <si>
-    <t>Alexsandr Kallus</t>
-  </si>
-  <si>
-    <t>Erskin Semaj</t>
-  </si>
-  <si>
-    <t>Eighth Brother</t>
-  </si>
-  <si>
-    <t>Azmorigan</t>
-  </si>
-  <si>
-    <t>Unidentified Imperial officer (Tellstar)</t>
-  </si>
-  <si>
-    <t>Unidentified Rebel transport captain</t>
-  </si>
-  <si>
-    <t>Uzall</t>
-  </si>
-  <si>
-    <t>Unidentified Imperial officer (Sovereign)</t>
-  </si>
-  <si>
-    <t>Moota Engatoo</t>
-  </si>
-  <si>
-    <t>BN-749</t>
-  </si>
-  <si>
-    <t>Jyn Erso</t>
-  </si>
-  <si>
-    <t>Green Leader (Atollon)</t>
-  </si>
-  <si>
-    <t>Duke (pilot)</t>
-  </si>
-  <si>
-    <t>Giles</t>
-  </si>
-  <si>
-    <t>Alton Kastle</t>
-  </si>
-  <si>
-    <t>Gold Two (rebellion)</t>
-  </si>
-  <si>
-    <t>TK-626</t>
-  </si>
-  <si>
-    <t>Ryder Azadi</t>
-  </si>
-  <si>
-    <t>Unidentified Stormtrooper Commander (Imperial Complex)</t>
-  </si>
-  <si>
-    <t>Unidentified Stormtrooper 1 (Freighter 2716)</t>
-  </si>
-  <si>
-    <t>Kassius Konstantine</t>
-  </si>
-  <si>
-    <t>Boscoface</t>
-  </si>
-  <si>
-    <t>Hark</t>
-  </si>
-  <si>
-    <t>Rangthang</t>
-  </si>
-  <si>
-    <t>Mira Bridger</t>
-  </si>
-  <si>
-    <t>Tyson (Gold Squadron)</t>
-  </si>
-  <si>
-    <t>Unidentified rebel crewman</t>
-  </si>
-  <si>
-    <t>Unidentified rebel trooper (Chopper Base)</t>
-  </si>
-  <si>
-    <t>Cham Syndulla</t>
-  </si>
-  <si>
-    <t>Slavin</t>
-  </si>
-  <si>
-    <t>Seevor</t>
-  </si>
-  <si>
-    <t>EXD-9</t>
-  </si>
-  <si>
-    <t>Ketsu Onyo</t>
-  </si>
-  <si>
-    <t>Maz Kanata</t>
-  </si>
-  <si>
-    <t>Yoda</t>
-  </si>
-  <si>
-    <t>Bo-Katan Kryze</t>
-  </si>
-  <si>
-    <t>Terba</t>
-  </si>
-  <si>
-    <t>Ahsoka Tano</t>
-  </si>
-  <si>
-    <t>Chirrut Îmwe</t>
-  </si>
-  <si>
-    <t>Sinker</t>
-  </si>
-  <si>
-    <t>Wedge Antilles</t>
-  </si>
-  <si>
-    <t>Oora</t>
-  </si>
-  <si>
-    <t>AP-5</t>
-  </si>
-  <si>
-    <t>White Loth-cat</t>
-  </si>
-  <si>
-    <t>Rey</t>
-  </si>
-  <si>
-    <t>Zare Leonis</t>
-  </si>
-  <si>
-    <t>Unidentified Rebel pilot (Liberator)</t>
-  </si>
-  <si>
-    <t>Saw Gerrera</t>
-  </si>
-  <si>
-    <t>writing</t>
-  </si>
-  <si>
-    <t>W1-LE</t>
-  </si>
-  <si>
-    <t>Phoenix Leader (Ibaar)</t>
-  </si>
-  <si>
-    <t>EG-86</t>
-  </si>
-  <si>
-    <t>Savage Opress</t>
-  </si>
-  <si>
-    <t>Vaux</t>
-  </si>
-  <si>
-    <t>Hondo Ohnaka</t>
-  </si>
-  <si>
-    <t>LS-005</t>
-  </si>
-  <si>
-    <t>Unidentified Imperial Jumptrooper Commander</t>
-  </si>
-  <si>
-    <t>Poe Dameron</t>
-  </si>
-  <si>
-    <t>Talzin</t>
-  </si>
-  <si>
-    <t>Ben Quadinaros</t>
-  </si>
-  <si>
-    <t>Cumberlayne Aresko</t>
-  </si>
-  <si>
-    <t>LS-21</t>
-  </si>
-  <si>
-    <t>Wullf Yularen</t>
-  </si>
-  <si>
-    <t>Daughter</t>
-  </si>
-  <si>
-    <t>Unidentified Rodian fruit vendor</t>
-  </si>
-  <si>
-    <t>Jon Vander</t>
-  </si>
-  <si>
-    <t>Pellaeon</t>
-  </si>
-  <si>
-    <t>Brom Titus</t>
-  </si>
-  <si>
-    <t>Unidentified female Rodian (Crawler 413-24)</t>
-  </si>
-  <si>
-    <t>Unidentified stormtrooper (Lyste's ship)</t>
-  </si>
-  <si>
-    <t>Serenity</t>
-  </si>
-  <si>
-    <t>Veris Hydan</t>
-  </si>
-  <si>
-    <t>CC-10/994</t>
-  </si>
-  <si>
-    <t>Darth Vader</t>
-  </si>
-  <si>
-    <t>Mart Mattin</t>
-  </si>
-  <si>
-    <t>Unidentified Stormtrooper commander (Crawler 413-24)</t>
-  </si>
-  <si>
-    <t>BG-81</t>
-  </si>
-  <si>
-    <t>Bail Organa</t>
-  </si>
-  <si>
-    <t>Unidentified Lasat mercenary</t>
-  </si>
-  <si>
-    <t>Alrich Wren</t>
-  </si>
-  <si>
-    <t>Unidentified Imperial scanning technician</t>
-  </si>
-  <si>
-    <t>Tseebo</t>
-  </si>
-  <si>
-    <t>Unidentified Imperial officer (Garel)</t>
-  </si>
-  <si>
-    <t>Arihnda Pryce</t>
-  </si>
-  <si>
-    <t>Woldar</t>
-  </si>
-  <si>
-    <t>Orson Callan Krennic</t>
-  </si>
-  <si>
-    <t>Ephraim Bridger</t>
-  </si>
-  <si>
-    <t>3-6</t>
-  </si>
-  <si>
-    <t>Dasha Sigweed</t>
-  </si>
-  <si>
-    <t>Rake Gahree</t>
-  </si>
-  <si>
-    <t>Unidentified Lasat Honor Guard</t>
-  </si>
-  <si>
-    <t>Gall Trayvis</t>
-  </si>
-  <si>
-    <t>Unidentified Imperial officer (Ibaar)</t>
-  </si>
-  <si>
-    <t>Derek Klivian</t>
-  </si>
-  <si>
-    <t>Garazeb Orrelios</t>
-  </si>
-  <si>
-    <t>R3-A3</t>
-  </si>
-  <si>
-    <t>Darth Sidious</t>
-  </si>
-  <si>
-    <t>Unidentified humanoid Jedi</t>
-  </si>
-  <si>
-    <t>Dume (Loth-wolf)</t>
-  </si>
-  <si>
-    <t>LT-319</t>
-  </si>
-  <si>
-    <t>Satine Kryze</t>
-  </si>
-  <si>
-    <t>PZ-7</t>
-  </si>
-  <si>
-    <t>Edrio</t>
-  </si>
-  <si>
-    <t>Unidentified Imperial transport captain</t>
-  </si>
-  <si>
-    <t>Seventh Sister</t>
-  </si>
-  <si>
-    <t>Pypey</t>
-  </si>
-  <si>
-    <t>LS-515</t>
-  </si>
-  <si>
-    <t>Sadness</t>
-  </si>
-  <si>
-    <t>Unidentified rebel trooper</t>
-  </si>
-  <si>
-    <t>LS-757</t>
-  </si>
-  <si>
-    <t>Goran (instructor)</t>
-  </si>
-  <si>
-    <t>Father (Mortis)</t>
-  </si>
-  <si>
     <t>Lorc</t>
   </si>
   <si>
@@ -788,9 +791,6 @@
   </si>
   <si>
     <t>Unidentified Bith musician (concert solo)</t>
-  </si>
-  <si>
-    <t>R2-D2</t>
   </si>
   <si>
     <t>Son</t>
@@ -1224,7 +1224,7 @@
         <v>0.133587786259542</v>
       </c>
       <c r="E2">
-        <v>0.06310375490864485</v>
+        <v>0.06310375490864484</v>
       </c>
       <c r="F2">
         <v>20</v>
@@ -1319,7 +1319,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.008666698355543942</v>
+        <v>0.008666698355543944</v>
       </c>
       <c r="C6">
         <v>71</v>
@@ -1328,7 +1328,7 @@
         <v>0.2709923664122137</v>
       </c>
       <c r="E6">
-        <v>0.1148068676533226</v>
+        <v>0.1148068676533227</v>
       </c>
       <c r="F6">
         <v>33</v>
@@ -1371,7 +1371,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.005332788404860786</v>
+        <v>0.005332788404860785</v>
       </c>
       <c r="C8">
         <v>45</v>
@@ -1380,7 +1380,7 @@
         <v>0.1717557251908397</v>
       </c>
       <c r="E8">
-        <v>0.09139817271545671</v>
+        <v>0.09139817271545672</v>
       </c>
       <c r="F8">
         <v>25</v>
@@ -1397,25 +1397,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.0003506188556024083</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>0.05343511450381679</v>
+        <v>0.007633587786259542</v>
       </c>
       <c r="E9">
-        <v>0.01069781630620417</v>
+        <v>8.356193642873144e-20</v>
       </c>
       <c r="F9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G9" t="s">
         <v>14</v>
       </c>
       <c r="H9">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>0.1793893129770992</v>
       </c>
       <c r="E10">
-        <v>0.08874403150792153</v>
+        <v>0.08874403150792154</v>
       </c>
       <c r="F10">
         <v>23</v>
@@ -1458,7 +1458,7 @@
         <v>0.07633587786259542</v>
       </c>
       <c r="E11">
-        <v>0.0498561302090615</v>
+        <v>0.04985613020906151</v>
       </c>
       <c r="F11">
         <v>9</v>
@@ -1484,7 +1484,7 @@
         <v>0.08015267175572519</v>
       </c>
       <c r="E12">
-        <v>0.04382583499903796</v>
+        <v>0.04382583499903795</v>
       </c>
       <c r="F12">
         <v>9</v>
@@ -1718,7 +1718,7 @@
         <v>0.2022900763358779</v>
       </c>
       <c r="E21">
-        <v>0.09584725924847518</v>
+        <v>0.09584725924847516</v>
       </c>
       <c r="F21">
         <v>27</v>
@@ -1813,7 +1813,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.07594086454018167</v>
+        <v>0.07594086454018169</v>
       </c>
       <c r="C25">
         <v>198</v>
@@ -1917,7 +1917,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.002332275828033047</v>
+        <v>0.002332275828033046</v>
       </c>
       <c r="C29">
         <v>27</v>
@@ -1978,7 +1978,7 @@
         <v>0.01908396946564886</v>
       </c>
       <c r="E31">
-        <v>0.005042476632823304</v>
+        <v>0.005042476632823305</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -2030,7 +2030,7 @@
         <v>0.0267175572519084</v>
       </c>
       <c r="E33">
-        <v>0.007654187012023726</v>
+        <v>0.007654187012023727</v>
       </c>
       <c r="F33">
         <v>2</v>
@@ -2134,7 +2134,7 @@
         <v>0.09541984732824427</v>
       </c>
       <c r="E37">
-        <v>0.03215244113964557</v>
+        <v>0.03215244113964558</v>
       </c>
       <c r="F37">
         <v>10</v>
@@ -2489,25 +2489,25 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.001713436342339572</v>
+        <v>5.713380694773223e-05</v>
       </c>
       <c r="C51">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="D51">
-        <v>0.1488549618320611</v>
+        <v>0.07251908396946564</v>
       </c>
       <c r="E51">
-        <v>0.0603105418934325</v>
+        <v>0.004030418927045861</v>
       </c>
       <c r="F51">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="G51" t="s">
         <v>56</v>
       </c>
       <c r="H51">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2567,25 +2567,25 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>5.713380694773223e-05</v>
+        <v>0.001713436342339572</v>
       </c>
       <c r="C54">
+        <v>39</v>
+      </c>
+      <c r="D54">
+        <v>0.1488549618320611</v>
+      </c>
+      <c r="E54">
+        <v>0.0603105418934325</v>
+      </c>
+      <c r="F54">
         <v>19</v>
-      </c>
-      <c r="D54">
-        <v>0.07251908396946564</v>
-      </c>
-      <c r="E54">
-        <v>0.00403041892704586</v>
-      </c>
-      <c r="F54">
-        <v>2</v>
       </c>
       <c r="G54" t="s">
         <v>59</v>
       </c>
       <c r="H54">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2622,22 +2622,22 @@
         <v>0</v>
       </c>
       <c r="C56">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D56">
-        <v>0.007633587786259542</v>
+        <v>0.0267175572519084</v>
       </c>
       <c r="E56">
-        <v>8.356193642873144e-20</v>
+        <v>0.002371533235925424</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G56" t="s">
         <v>61</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2645,25 +2645,25 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>0.0001959190920463403</v>
       </c>
       <c r="C57">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D57">
-        <v>0.0267175572519084</v>
+        <v>0.0648854961832061</v>
       </c>
       <c r="E57">
-        <v>0.002371533235925424</v>
+        <v>0.01960003027300287</v>
       </c>
       <c r="F57">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G57" t="s">
         <v>62</v>
       </c>
       <c r="H57">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2671,25 +2671,25 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.0001959190920463403</v>
+        <v>0</v>
       </c>
       <c r="C58">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D58">
-        <v>0.0648854961832061</v>
+        <v>0.007633587786259542</v>
       </c>
       <c r="E58">
-        <v>0.01960003027300286</v>
+        <v>6.844558212877393e-16</v>
       </c>
       <c r="F58">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G58" t="s">
         <v>63</v>
       </c>
       <c r="H58">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2697,25 +2697,25 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>0.001214982301923758</v>
       </c>
       <c r="C59">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="D59">
-        <v>0.007633587786259542</v>
+        <v>0.183206106870229</v>
       </c>
       <c r="E59">
-        <v>6.844558212877392e-16</v>
+        <v>0.1048767593424812</v>
       </c>
       <c r="F59">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="G59" t="s">
         <v>64</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2723,25 +2723,25 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.001214982301923758</v>
+        <v>0.01418240649605474</v>
       </c>
       <c r="C60">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="D60">
-        <v>0.183206106870229</v>
+        <v>0.3435114503816794</v>
       </c>
       <c r="E60">
-        <v>0.1048767593424811</v>
+        <v>0.1484349206639645</v>
       </c>
       <c r="F60">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="G60" t="s">
         <v>65</v>
       </c>
       <c r="H60">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2749,25 +2749,25 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.01418240649605474</v>
+        <v>0</v>
       </c>
       <c r="C61">
-        <v>90</v>
+        <v>3</v>
       </c>
       <c r="D61">
-        <v>0.3435114503816794</v>
+        <v>0.01145038167938931</v>
       </c>
       <c r="E61">
-        <v>0.1484349206639645</v>
+        <v>8.356193642873144e-20</v>
       </c>
       <c r="F61">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="G61" t="s">
         <v>66</v>
       </c>
       <c r="H61">
-        <v>41</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2775,19 +2775,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>0.0001050397164681547</v>
       </c>
       <c r="C62">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D62">
-        <v>0.01145038167938931</v>
+        <v>0.05725190839694656</v>
       </c>
       <c r="E62">
-        <v>8.356193642873144e-20</v>
+        <v>0.04017922572028775</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G62" t="s">
         <v>67</v>
@@ -2801,19 +2801,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.0001050397164681547</v>
+        <v>0</v>
       </c>
       <c r="C63">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D63">
-        <v>0.05725190839694656</v>
+        <v>0.01526717557251908</v>
       </c>
       <c r="E63">
-        <v>0.04017922572028775</v>
+        <v>0.0002044164685327469</v>
       </c>
       <c r="F63">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G63" t="s">
         <v>68</v>
@@ -2836,16 +2836,16 @@
         <v>0.01526717557251908</v>
       </c>
       <c r="E64">
-        <v>0.0002044164685327469</v>
+        <v>0.02182800460457507</v>
       </c>
       <c r="F64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G64" t="s">
         <v>69</v>
       </c>
       <c r="H64">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2853,25 +2853,25 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>0.00930601996123614</v>
       </c>
       <c r="C65">
-        <v>4</v>
+        <v>95</v>
       </c>
       <c r="D65">
-        <v>0.01526717557251908</v>
+        <v>0.3625954198473282</v>
       </c>
       <c r="E65">
-        <v>0.02182800460457507</v>
+        <v>0.1499576381262836</v>
       </c>
       <c r="F65">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="G65" t="s">
         <v>70</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2879,25 +2879,25 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.00930601996123614</v>
+        <v>0.0007041210302712531</v>
       </c>
       <c r="C66">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="D66">
-        <v>0.3625954198473282</v>
+        <v>0.06870229007633588</v>
       </c>
       <c r="E66">
-        <v>0.1499576381262836</v>
+        <v>0.03861021454817115</v>
       </c>
       <c r="F66">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="G66" t="s">
         <v>71</v>
       </c>
       <c r="H66">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2905,25 +2905,25 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.0007041210302712531</v>
+        <v>0</v>
       </c>
       <c r="C67">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D67">
-        <v>0.06870229007633588</v>
+        <v>0.007633587786259542</v>
       </c>
       <c r="E67">
-        <v>0.03861021454817115</v>
+        <v>0.001870688390605996</v>
       </c>
       <c r="F67">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G67" t="s">
         <v>72</v>
       </c>
       <c r="H67">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2931,25 +2931,25 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0</v>
+        <v>8.315489066071166e-05</v>
       </c>
       <c r="C68">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D68">
-        <v>0.01526717557251908</v>
+        <v>0.05725190839694656</v>
       </c>
       <c r="E68">
-        <v>3.42269691612084e-16</v>
+        <v>0.03754657902448758</v>
       </c>
       <c r="F68">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G68" t="s">
         <v>73</v>
       </c>
       <c r="H68">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2957,25 +2957,25 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>8.315489066071166e-05</v>
+        <v>0.09810114048909838</v>
       </c>
       <c r="C69">
-        <v>15</v>
+        <v>206</v>
       </c>
       <c r="D69">
-        <v>0.05725190839694656</v>
+        <v>0.7862595419847328</v>
       </c>
       <c r="E69">
-        <v>0.03754657902448758</v>
+        <v>0.1918798101182885</v>
       </c>
       <c r="F69">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="G69" t="s">
         <v>74</v>
       </c>
       <c r="H69">
-        <v>4</v>
+        <v>106</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2983,25 +2983,25 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.09810114048909839</v>
+        <v>0.02189083847059645</v>
       </c>
       <c r="C70">
-        <v>206</v>
+        <v>106</v>
       </c>
       <c r="D70">
-        <v>0.7862595419847328</v>
+        <v>0.4045801526717557</v>
       </c>
       <c r="E70">
-        <v>0.1918798101182885</v>
+        <v>0.1694695028604874</v>
       </c>
       <c r="F70">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="G70" t="s">
         <v>75</v>
       </c>
       <c r="H70">
-        <v>106</v>
+        <v>35</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3009,25 +3009,25 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.02189083847059645</v>
+        <v>0.0001418304731645698</v>
       </c>
       <c r="C71">
-        <v>106</v>
+        <v>26</v>
       </c>
       <c r="D71">
-        <v>0.4045801526717557</v>
+        <v>0.09923664122137404</v>
       </c>
       <c r="E71">
-        <v>0.1694695028604874</v>
+        <v>0.04461413437365312</v>
       </c>
       <c r="F71">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="G71" t="s">
         <v>76</v>
       </c>
       <c r="H71">
-        <v>35</v>
+        <v>14</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3035,25 +3035,25 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.0001418304731645698</v>
+        <v>2.97587065715009e-05</v>
       </c>
       <c r="C72">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D72">
-        <v>0.09923664122137404</v>
+        <v>0.04961832061068702</v>
       </c>
       <c r="E72">
-        <v>0.04461413437365313</v>
+        <v>0.04614058178369936</v>
       </c>
       <c r="F72">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G72" t="s">
         <v>77</v>
       </c>
       <c r="H72">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3061,25 +3061,25 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>2.97587065715009e-05</v>
+        <v>0</v>
       </c>
       <c r="C73">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D73">
-        <v>0.04961832061068702</v>
+        <v>0.0267175572519084</v>
       </c>
       <c r="E73">
-        <v>0.04614058178369936</v>
+        <v>0.005872569630511301</v>
       </c>
       <c r="F73">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G73" t="s">
         <v>78</v>
       </c>
       <c r="H73">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3090,22 +3090,22 @@
         <v>0</v>
       </c>
       <c r="C74">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D74">
-        <v>0.0267175572519084</v>
+        <v>0.003816793893129771</v>
       </c>
       <c r="E74">
-        <v>0.005872569630511299</v>
+        <v>8.356193642873144e-20</v>
       </c>
       <c r="F74">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G74" t="s">
         <v>79</v>
       </c>
       <c r="H74">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3116,10 +3116,10 @@
         <v>0</v>
       </c>
       <c r="C75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D75">
-        <v>0.003816793893129771</v>
+        <v>0.01145038167938931</v>
       </c>
       <c r="E75">
         <v>8.356193642873144e-20</v>
@@ -3131,7 +3131,7 @@
         <v>80</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3139,25 +3139,25 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0</v>
+        <v>0.001819121640620087</v>
       </c>
       <c r="C76">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="D76">
-        <v>0.01145038167938931</v>
+        <v>0.08778625954198473</v>
       </c>
       <c r="E76">
-        <v>8.356193642873144e-20</v>
+        <v>0.03795102135875699</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G76" t="s">
         <v>81</v>
       </c>
       <c r="H76">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3165,7 +3165,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.001819121640620087</v>
+        <v>0.0001409138206280277</v>
       </c>
       <c r="C77">
         <v>23</v>
@@ -3174,16 +3174,16 @@
         <v>0.08778625954198473</v>
       </c>
       <c r="E77">
-        <v>0.03795102135875699</v>
+        <v>0.03907122266516597</v>
       </c>
       <c r="F77">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G77" t="s">
         <v>82</v>
       </c>
       <c r="H77">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3191,25 +3191,25 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.0001409138206280277</v>
+        <v>0</v>
       </c>
       <c r="C78">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D78">
-        <v>0.08778625954198473</v>
+        <v>0</v>
       </c>
       <c r="E78">
-        <v>0.03907122266516597</v>
+        <v>8.356193642873144e-20</v>
       </c>
       <c r="F78">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G78" t="s">
         <v>83</v>
       </c>
       <c r="H78">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3217,25 +3217,25 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>6.076302381317341e-05</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D79">
-        <v>0</v>
+        <v>0.08396946564885496</v>
       </c>
       <c r="E79">
-        <v>8.356193642873144e-20</v>
+        <v>0.04345533015045366</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G79" t="s">
         <v>84</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3243,16 +3243,16 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6.076302381317341e-05</v>
+        <v>9.929649256420982e-05</v>
       </c>
       <c r="C80">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D80">
-        <v>0.08396946564885496</v>
+        <v>0.06870229007633588</v>
       </c>
       <c r="E80">
-        <v>0.04345533015045366</v>
+        <v>0.02639363397870041</v>
       </c>
       <c r="F80">
         <v>8</v>
@@ -3261,7 +3261,7 @@
         <v>85</v>
       </c>
       <c r="H80">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3272,10 +3272,10 @@
         <v>0</v>
       </c>
       <c r="C81">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81">
-        <v>0.007633587786259542</v>
+        <v>0.01908396946564886</v>
       </c>
       <c r="E81">
         <v>8.356193642873144e-20</v>
@@ -3287,7 +3287,7 @@
         <v>86</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3295,25 +3295,25 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.003597437922260244</v>
       </c>
       <c r="C82">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D82">
-        <v>0.01908396946564886</v>
+        <v>0.03816793893129771</v>
       </c>
       <c r="E82">
-        <v>8.356193642873144e-20</v>
+        <v>0.009017228139875622</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G82" t="s">
         <v>87</v>
       </c>
       <c r="H82">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3321,16 +3321,16 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.003597437922260244</v>
+        <v>0.0008037832150136375</v>
       </c>
       <c r="C83">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D83">
-        <v>0.03816793893129771</v>
+        <v>0.03053435114503817</v>
       </c>
       <c r="E83">
-        <v>0.00901722813987562</v>
+        <v>0.00740593780681391</v>
       </c>
       <c r="F83">
         <v>3</v>
@@ -3339,7 +3339,7 @@
         <v>88</v>
       </c>
       <c r="H83">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3347,25 +3347,25 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.0008037832150136375</v>
+        <v>0.001371926579590279</v>
       </c>
       <c r="C84">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="D84">
-        <v>0.03053435114503817</v>
+        <v>0.1183206106870229</v>
       </c>
       <c r="E84">
-        <v>0.00740593780681391</v>
+        <v>0.05078632744291466</v>
       </c>
       <c r="F84">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="G84" t="s">
         <v>89</v>
       </c>
       <c r="H84">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3373,25 +3373,25 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.001371926579590279</v>
+        <v>0</v>
       </c>
       <c r="C85">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D85">
-        <v>0.1183206106870229</v>
+        <v>0.02290076335877863</v>
       </c>
       <c r="E85">
-        <v>0.05078632744291466</v>
+        <v>0.007945057862745086</v>
       </c>
       <c r="F85">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="G85" t="s">
         <v>90</v>
       </c>
       <c r="H85">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3402,16 +3402,16 @@
         <v>0</v>
       </c>
       <c r="C86">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D86">
-        <v>0.02290076335877863</v>
+        <v>0.01526717557251908</v>
       </c>
       <c r="E86">
-        <v>0.007945057862745089</v>
+        <v>3.42269691612084e-16</v>
       </c>
       <c r="F86">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G86" t="s">
         <v>91</v>
@@ -3425,25 +3425,25 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0</v>
+        <v>0.0007003349724096716</v>
       </c>
       <c r="C87">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="D87">
-        <v>0.01526717557251908</v>
+        <v>0.1755725190839695</v>
       </c>
       <c r="E87">
-        <v>3.42269691612084e-16</v>
+        <v>0.08526994152394679</v>
       </c>
       <c r="F87">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="G87" t="s">
         <v>92</v>
       </c>
       <c r="H87">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3451,25 +3451,25 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.0007003349724096715</v>
+        <v>0</v>
       </c>
       <c r="C88">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="D88">
-        <v>0.1755725190839695</v>
+        <v>0.003816793893129771</v>
       </c>
       <c r="E88">
-        <v>0.08526994152394678</v>
+        <v>8.356193642873144e-20</v>
       </c>
       <c r="F88">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="G88" t="s">
         <v>93</v>
       </c>
       <c r="H88">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3480,22 +3480,22 @@
         <v>0</v>
       </c>
       <c r="C89">
+        <v>8</v>
+      </c>
+      <c r="D89">
+        <v>0.03053435114503817</v>
+      </c>
+      <c r="E89">
+        <v>3.42269691612084e-16</v>
+      </c>
+      <c r="F89">
         <v>1</v>
-      </c>
-      <c r="D89">
-        <v>0.003816793893129771</v>
-      </c>
-      <c r="E89">
-        <v>8.356193642873144e-20</v>
-      </c>
-      <c r="F89">
-        <v>0</v>
       </c>
       <c r="G89" t="s">
         <v>94</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3506,13 +3506,13 @@
         <v>0</v>
       </c>
       <c r="C90">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D90">
-        <v>0.03053435114503817</v>
+        <v>0.02290076335877863</v>
       </c>
       <c r="E90">
-        <v>3.42269691612084e-16</v>
+        <v>0.0002044164685327469</v>
       </c>
       <c r="F90">
         <v>1</v>
@@ -3521,7 +3521,7 @@
         <v>95</v>
       </c>
       <c r="H90">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3529,25 +3529,25 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0</v>
+        <v>0.007978077729871837</v>
       </c>
       <c r="C91">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="D91">
-        <v>0.02290076335877863</v>
+        <v>0.2442748091603053</v>
       </c>
       <c r="E91">
-        <v>0.0002044164685327469</v>
+        <v>0.1172471209499342</v>
       </c>
       <c r="F91">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="G91" t="s">
         <v>96</v>
       </c>
       <c r="H91">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3555,25 +3555,25 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.007978077729871837</v>
+        <v>0.001415903859778785</v>
       </c>
       <c r="C92">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="D92">
-        <v>0.2442748091603053</v>
+        <v>0.1641221374045801</v>
       </c>
       <c r="E92">
-        <v>0.1172471209499342</v>
+        <v>0.08878006451816418</v>
       </c>
       <c r="F92">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G92" t="s">
         <v>97</v>
       </c>
       <c r="H92">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3581,25 +3581,25 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.001415903859778785</v>
+        <v>0</v>
       </c>
       <c r="C93">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="D93">
-        <v>0.1641221374045801</v>
+        <v>0.01526717557251908</v>
       </c>
       <c r="E93">
-        <v>0.08878006451816416</v>
+        <v>8.356193642873144e-20</v>
       </c>
       <c r="F93">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="G93" t="s">
         <v>98</v>
       </c>
       <c r="H93">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3610,10 +3610,10 @@
         <v>0</v>
       </c>
       <c r="C94">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D94">
-        <v>0.01526717557251908</v>
+        <v>0.02290076335877863</v>
       </c>
       <c r="E94">
         <v>8.356193642873144e-20</v>
@@ -3625,7 +3625,7 @@
         <v>99</v>
       </c>
       <c r="H94">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3633,25 +3633,25 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0</v>
+        <v>0.001171336476915366</v>
       </c>
       <c r="C95">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="D95">
-        <v>0.02290076335877863</v>
+        <v>0.1603053435114504</v>
       </c>
       <c r="E95">
-        <v>8.356193642873144e-20</v>
+        <v>0.07275231995227721</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G95" t="s">
         <v>100</v>
       </c>
       <c r="H95">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3659,25 +3659,25 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.001171336476915366</v>
+        <v>4.653346322206549e-05</v>
       </c>
       <c r="C96">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="D96">
-        <v>0.1603053435114504</v>
+        <v>0.06106870229007633</v>
       </c>
       <c r="E96">
-        <v>0.07275231995227721</v>
+        <v>0.05368199188612781</v>
       </c>
       <c r="F96">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G96" t="s">
         <v>101</v>
       </c>
       <c r="H96">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3685,19 +3685,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>4.653346322206549e-05</v>
+        <v>0</v>
       </c>
       <c r="C97">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D97">
-        <v>0.06106870229007633</v>
+        <v>0.0267175572519084</v>
       </c>
       <c r="E97">
-        <v>0.05368199188612781</v>
+        <v>0.01289920264160928</v>
       </c>
       <c r="F97">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G97" t="s">
         <v>102</v>
@@ -3714,22 +3714,22 @@
         <v>0</v>
       </c>
       <c r="C98">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D98">
-        <v>0.0267175572519084</v>
+        <v>0.003816793893129771</v>
       </c>
       <c r="E98">
-        <v>0.01289920264160928</v>
+        <v>8.356193642873144e-20</v>
       </c>
       <c r="F98">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G98" t="s">
         <v>103</v>
       </c>
       <c r="H98">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3737,25 +3737,25 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>0.02613992759734777</v>
       </c>
       <c r="C99">
-        <v>1</v>
+        <v>115</v>
       </c>
       <c r="D99">
-        <v>0.003816793893129771</v>
+        <v>0.4389312977099237</v>
       </c>
       <c r="E99">
-        <v>8.356193642873144e-20</v>
+        <v>0.1545706996604481</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="G99" t="s">
         <v>104</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>56</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3763,25 +3763,25 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.02613992759734777</v>
+        <v>0.0001293662736331966</v>
       </c>
       <c r="C100">
-        <v>115</v>
+        <v>18</v>
       </c>
       <c r="D100">
-        <v>0.4389312977099237</v>
+        <v>0.06870229007633588</v>
       </c>
       <c r="E100">
-        <v>0.1545706996604481</v>
+        <v>0.03686295898958056</v>
       </c>
       <c r="F100">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="G100" t="s">
         <v>105</v>
       </c>
       <c r="H100">
-        <v>56</v>
+        <v>6</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3789,19 +3789,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>2.515288770987841e-05</v>
+        <v>6.620916804785152e-05</v>
       </c>
       <c r="C101">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D101">
-        <v>0.06870229007633588</v>
+        <v>0.07251908396946564</v>
       </c>
       <c r="E101">
-        <v>0.0365646697391289</v>
+        <v>0.04465302917908738</v>
       </c>
       <c r="F101">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G101" t="s">
         <v>106</v>
@@ -3815,25 +3815,25 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6.620916804785152e-05</v>
+        <v>0.0001069486979905953</v>
       </c>
       <c r="C102">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D102">
-        <v>0.07251908396946564</v>
+        <v>0.08015267175572519</v>
       </c>
       <c r="E102">
-        <v>0.04465302917908739</v>
+        <v>0.05444371361656136</v>
       </c>
       <c r="F102">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G102" t="s">
         <v>107</v>
       </c>
       <c r="H102">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3841,25 +3841,25 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.0001069486979905953</v>
+        <v>0</v>
       </c>
       <c r="C103">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="D103">
-        <v>0.08015267175572519</v>
+        <v>0.01145038167938931</v>
       </c>
       <c r="E103">
-        <v>0.05444371361656136</v>
+        <v>8.356193642873144e-20</v>
       </c>
       <c r="F103">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G103" t="s">
         <v>108</v>
       </c>
       <c r="H103">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3867,25 +3867,25 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.0003506188556024084</v>
       </c>
       <c r="C104">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D104">
-        <v>0.01145038167938931</v>
+        <v>0.05343511450381679</v>
       </c>
       <c r="E104">
-        <v>8.356193642873144e-20</v>
+        <v>0.01069781630620417</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G104" t="s">
         <v>109</v>
       </c>
       <c r="H104">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3896,13 +3896,13 @@
         <v>0</v>
       </c>
       <c r="C105">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D105">
-        <v>0.007633587786259542</v>
+        <v>0.01526717557251908</v>
       </c>
       <c r="E105">
-        <v>0.001870688390605996</v>
+        <v>3.42269691612084e-16</v>
       </c>
       <c r="F105">
         <v>1</v>
@@ -3911,7 +3911,7 @@
         <v>110</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>0.1030534351145038</v>
       </c>
       <c r="E114">
-        <v>0.04683931512266085</v>
+        <v>0.04683931512266087</v>
       </c>
       <c r="F114">
         <v>13</v>
@@ -4188,7 +4188,7 @@
         <v>0.01908396946564886</v>
       </c>
       <c r="E116">
-        <v>0.006266302726146182</v>
+        <v>0.006266302726146183</v>
       </c>
       <c r="F116">
         <v>2</v>
@@ -4205,7 +4205,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.006201612231801504</v>
+        <v>0.006201612231801506</v>
       </c>
       <c r="C117">
         <v>68</v>
@@ -4361,25 +4361,25 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0</v>
+        <v>0.00978141245044277</v>
       </c>
       <c r="C123">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="D123">
-        <v>0</v>
+        <v>0.316793893129771</v>
       </c>
       <c r="E123">
-        <v>8.356193642873144e-20</v>
+        <v>0.1256778992459065</v>
       </c>
       <c r="F123">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G123" t="s">
         <v>128</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4517,7 +4517,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0.0006219925979421936</v>
+        <v>0.0006219925979421934</v>
       </c>
       <c r="C129">
         <v>32</v>
@@ -4543,7 +4543,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>0.006593842454995605</v>
+        <v>0.006593842454995606</v>
       </c>
       <c r="C130">
         <v>16</v>
@@ -4552,7 +4552,7 @@
         <v>0.06106870229007633</v>
       </c>
       <c r="E130">
-        <v>0.03441224742873294</v>
+        <v>0.03441224742873295</v>
       </c>
       <c r="F130">
         <v>10</v>
@@ -4578,7 +4578,7 @@
         <v>0.0648854961832061</v>
       </c>
       <c r="E131">
-        <v>0.05719268115221722</v>
+        <v>0.05719268115221723</v>
       </c>
       <c r="F131">
         <v>12</v>
@@ -4604,7 +4604,7 @@
         <v>0.1297709923664122</v>
       </c>
       <c r="E132">
-        <v>0.07222895564115252</v>
+        <v>0.0722289556411525</v>
       </c>
       <c r="F132">
         <v>18</v>
@@ -4647,7 +4647,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>0.006438331921258616</v>
+        <v>0.006438331921258617</v>
       </c>
       <c r="C134">
         <v>52</v>
@@ -4673,7 +4673,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>0.002573512694279754</v>
+        <v>0.002573512694279755</v>
       </c>
       <c r="C135">
         <v>31</v>
@@ -4682,7 +4682,7 @@
         <v>0.1183206106870229</v>
       </c>
       <c r="E135">
-        <v>0.04709865600535642</v>
+        <v>0.04709865600535641</v>
       </c>
       <c r="F135">
         <v>14</v>
@@ -4708,7 +4708,7 @@
         <v>0.05343511450381679</v>
       </c>
       <c r="E136">
-        <v>0.0454061050104561</v>
+        <v>0.04540610501045611</v>
       </c>
       <c r="F136">
         <v>9</v>
@@ -4803,7 +4803,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>0.003294750676119634</v>
+        <v>0.003294750676119635</v>
       </c>
       <c r="C140">
         <v>47</v>
@@ -4855,7 +4855,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>0.006130482192440172</v>
+        <v>0.00613048219244017</v>
       </c>
       <c r="C142">
         <v>47</v>
@@ -4864,7 +4864,7 @@
         <v>0.1793893129770992</v>
       </c>
       <c r="E142">
-        <v>0.08070811884131728</v>
+        <v>0.08070811884131729</v>
       </c>
       <c r="F142">
         <v>23</v>
@@ -4985,7 +4985,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>0.01525511139787249</v>
+        <v>0.0152551113978725</v>
       </c>
       <c r="C147">
         <v>69</v>
@@ -5046,7 +5046,7 @@
         <v>0.03435114503816794</v>
       </c>
       <c r="E149">
-        <v>0.03582543528438033</v>
+        <v>0.03582543528438032</v>
       </c>
       <c r="F149">
         <v>6</v>
@@ -5115,25 +5115,25 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>0.0001293662736331966</v>
+        <v>0.009639706782084994</v>
       </c>
       <c r="C152">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="D152">
-        <v>0.06870229007633588</v>
+        <v>0.3091603053435115</v>
       </c>
       <c r="E152">
-        <v>0.03686295898958056</v>
+        <v>0.1410686146815536</v>
       </c>
       <c r="F152">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="G152" t="s">
         <v>157</v>
       </c>
       <c r="H152">
-        <v>6</v>
+        <v>40</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5167,7 +5167,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>0.005363531149952093</v>
+        <v>0.005363531149952092</v>
       </c>
       <c r="C154">
         <v>68</v>
@@ -5254,7 +5254,7 @@
         <v>0.06106870229007633</v>
       </c>
       <c r="E157">
-        <v>0.01475507621065957</v>
+        <v>0.01475507621065958</v>
       </c>
       <c r="F157">
         <v>7</v>
@@ -5306,7 +5306,7 @@
         <v>0.01908396946564886</v>
       </c>
       <c r="E159">
-        <v>0.009881618932529214</v>
+        <v>0.009881618932529215</v>
       </c>
       <c r="F159">
         <v>2</v>
@@ -5323,7 +5323,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>0.006132988107365557</v>
+        <v>0.006132988107365556</v>
       </c>
       <c r="C160">
         <v>29</v>
@@ -5384,7 +5384,7 @@
         <v>0.133587786259542</v>
       </c>
       <c r="E162">
-        <v>0.07194297464290353</v>
+        <v>0.07194297464290354</v>
       </c>
       <c r="F162">
         <v>16</v>
@@ -5401,7 +5401,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>0.000467958166645678</v>
+        <v>0.0004679581666456781</v>
       </c>
       <c r="C163">
         <v>18</v>
@@ -5410,7 +5410,7 @@
         <v>0.06870229007633588</v>
       </c>
       <c r="E163">
-        <v>0.034812998215428</v>
+        <v>0.03481299821542801</v>
       </c>
       <c r="F163">
         <v>10</v>
@@ -5488,7 +5488,7 @@
         <v>0.01908396946564886</v>
       </c>
       <c r="E166">
-        <v>0.005528532029476168</v>
+        <v>0.005528532029476169</v>
       </c>
       <c r="F166">
         <v>1</v>
@@ -5514,7 +5514,7 @@
         <v>0.1374045801526718</v>
       </c>
       <c r="E167">
-        <v>0.07076455212593387</v>
+        <v>0.07076455212593386</v>
       </c>
       <c r="F167">
         <v>17</v>
@@ -5748,7 +5748,7 @@
         <v>0.02290076335877863</v>
       </c>
       <c r="E176">
-        <v>0.007825779678333767</v>
+        <v>0.007825779678333769</v>
       </c>
       <c r="F176">
         <v>2</v>
@@ -5817,7 +5817,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>0.0006206526143747963</v>
+        <v>0.0006206526143747964</v>
       </c>
       <c r="C179">
         <v>22</v>
@@ -5826,7 +5826,7 @@
         <v>0.08396946564885496</v>
       </c>
       <c r="E179">
-        <v>0.04274903204186165</v>
+        <v>0.04274903204186164</v>
       </c>
       <c r="F179">
         <v>12</v>
@@ -5852,7 +5852,7 @@
         <v>0.01145038167938931</v>
       </c>
       <c r="E180">
-        <v>0.003306469902493272</v>
+        <v>0.003306469902493271</v>
       </c>
       <c r="F180">
         <v>1</v>
@@ -5878,7 +5878,7 @@
         <v>0.1068702290076336</v>
       </c>
       <c r="E181">
-        <v>0.06486806385408325</v>
+        <v>0.06486806385408327</v>
       </c>
       <c r="F181">
         <v>18</v>
@@ -5921,25 +5921,25 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>0.00978141245044277</v>
+        <v>0</v>
       </c>
       <c r="C183">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="D183">
-        <v>0.316793893129771</v>
+        <v>0</v>
       </c>
       <c r="E183">
-        <v>0.1256778992459065</v>
+        <v>8.356193642873144e-20</v>
       </c>
       <c r="F183">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="G183" t="s">
         <v>188</v>
       </c>
       <c r="H183">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>0.01526717557251908</v>
       </c>
       <c r="E190">
-        <v>0.01006715997846006</v>
+        <v>0.01006715997846007</v>
       </c>
       <c r="F190">
         <v>2</v>
@@ -6190,7 +6190,7 @@
         <v>0.1221374045801527</v>
       </c>
       <c r="E193">
-        <v>0.05341868958765649</v>
+        <v>0.05341868958765648</v>
       </c>
       <c r="F193">
         <v>12</v>
@@ -6207,7 +6207,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>0.05958592470275873</v>
+        <v>0.05958592470275872</v>
       </c>
       <c r="C194">
         <v>176</v>
@@ -6233,7 +6233,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>0.0002330900506726237</v>
+        <v>0.0002330900506726236</v>
       </c>
       <c r="C195">
         <v>21</v>
@@ -6242,7 +6242,7 @@
         <v>0.08015267175572519</v>
       </c>
       <c r="E195">
-        <v>0.0470278444921043</v>
+        <v>0.04702784449210429</v>
       </c>
       <c r="F195">
         <v>10</v>
@@ -6528,7 +6528,7 @@
         <v>0.03435114503816794</v>
       </c>
       <c r="E206">
-        <v>0.006266302726146182</v>
+        <v>0.006266302726146183</v>
       </c>
       <c r="F206">
         <v>2</v>
@@ -6554,7 +6554,7 @@
         <v>0.007633587786259542</v>
       </c>
       <c r="E207">
-        <v>6.844558212877392e-16</v>
+        <v>6.844558212877393e-16</v>
       </c>
       <c r="F207">
         <v>2</v>
@@ -6623,25 +6623,25 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>4.795381743059976e-05</v>
+        <v>2.515288770987841e-05</v>
       </c>
       <c r="C210">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D210">
-        <v>0.05343511450381679</v>
+        <v>0.06870229007633588</v>
       </c>
       <c r="E210">
-        <v>0.01157283651704751</v>
+        <v>0.0365646697391289</v>
       </c>
       <c r="F210">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G210" t="s">
         <v>215</v>
       </c>
       <c r="H210">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -6649,25 +6649,25 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>9.929649256420982e-05</v>
+        <v>4.795381743059976e-05</v>
       </c>
       <c r="C211">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D211">
-        <v>0.06870229007633588</v>
+        <v>0.05343511450381679</v>
       </c>
       <c r="E211">
-        <v>0.0263936339787004</v>
+        <v>0.01157283651704751</v>
       </c>
       <c r="F211">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G211" t="s">
         <v>216</v>
       </c>
       <c r="H211">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6701,25 +6701,25 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>0.001245174668023377</v>
+        <v>0</v>
       </c>
       <c r="C213">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="D213">
-        <v>0.0916030534351145</v>
+        <v>0.007633587786259542</v>
       </c>
       <c r="E213">
-        <v>0.02520653512056821</v>
+        <v>8.356193642873144e-20</v>
       </c>
       <c r="F213">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G213" t="s">
         <v>218</v>
       </c>
       <c r="H213">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6727,16 +6727,16 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>0.0002182037326448986</v>
+        <v>0.001245174668023377</v>
       </c>
       <c r="C214">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D214">
-        <v>0.08015267175572519</v>
+        <v>0.0916030534351145</v>
       </c>
       <c r="E214">
-        <v>0.04382583499903796</v>
+        <v>0.02520653512056821</v>
       </c>
       <c r="F214">
         <v>9</v>
@@ -6745,7 +6745,7 @@
         <v>219</v>
       </c>
       <c r="H214">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6753,25 +6753,25 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>0</v>
+        <v>0.0002182037326448986</v>
       </c>
       <c r="C215">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D215">
-        <v>0.007633587786259542</v>
+        <v>0.08015267175572519</v>
       </c>
       <c r="E215">
-        <v>0.001122590290491426</v>
+        <v>0.04382583499903795</v>
       </c>
       <c r="F215">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G215" t="s">
         <v>220</v>
       </c>
       <c r="H215">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6779,25 +6779,25 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>1.332727816836687e-05</v>
+        <v>0</v>
       </c>
       <c r="C216">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D216">
-        <v>0.01526717557251908</v>
+        <v>0.007633587786259542</v>
       </c>
       <c r="E216">
-        <v>0.007758534782226772</v>
+        <v>0.001122590290491426</v>
       </c>
       <c r="F216">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G216" t="s">
         <v>221</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6805,7 +6805,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>0</v>
+        <v>1.332727816836687e-05</v>
       </c>
       <c r="C217">
         <v>4</v>
@@ -6814,16 +6814,16 @@
         <v>0.01526717557251908</v>
       </c>
       <c r="E217">
-        <v>8.356193642873144e-20</v>
+        <v>0.00775853478222677</v>
       </c>
       <c r="F217">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G217" t="s">
         <v>222</v>
       </c>
       <c r="H217">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6840,16 +6840,16 @@
         <v>0.01526717557251908</v>
       </c>
       <c r="E218">
-        <v>0.006863654158017916</v>
+        <v>8.356193642873144e-20</v>
       </c>
       <c r="F218">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G218" t="s">
         <v>223</v>
       </c>
       <c r="H218">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6860,22 +6860,22 @@
         <v>0</v>
       </c>
       <c r="C219">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D219">
-        <v>0.007633587786259542</v>
+        <v>0.01526717557251908</v>
       </c>
       <c r="E219">
-        <v>8.356193642873144e-20</v>
+        <v>0.006863654158017914</v>
       </c>
       <c r="F219">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G219" t="s">
         <v>224</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6883,25 +6883,25 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>0.0002718361569283543</v>
+        <v>0</v>
       </c>
       <c r="C220">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D220">
-        <v>0.06106870229007633</v>
+        <v>0.007633587786259542</v>
       </c>
       <c r="E220">
-        <v>0.02903444720273972</v>
+        <v>8.356193642873144e-20</v>
       </c>
       <c r="F220">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G220" t="s">
         <v>225</v>
       </c>
       <c r="H220">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6909,25 +6909,25 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>0.003119777757469067</v>
+        <v>0.0002718361569283543</v>
       </c>
       <c r="C221">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="D221">
-        <v>0.1946564885496183</v>
+        <v>0.06106870229007633</v>
       </c>
       <c r="E221">
-        <v>0.09233728259061148</v>
+        <v>0.02903444720273972</v>
       </c>
       <c r="F221">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="G221" t="s">
         <v>226</v>
       </c>
       <c r="H221">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6935,25 +6935,25 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>1.470423502439626e-06</v>
+        <v>0.003119777757469066</v>
       </c>
       <c r="C222">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="D222">
-        <v>0.0267175572519084</v>
+        <v>0.1946564885496183</v>
       </c>
       <c r="E222">
-        <v>0.02210952755257061</v>
+        <v>0.0923372825906115</v>
       </c>
       <c r="F222">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="G222" t="s">
         <v>227</v>
       </c>
       <c r="H222">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6961,25 +6961,25 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>0.002775127587753711</v>
+        <v>1.470423502439626e-06</v>
       </c>
       <c r="C223">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="D223">
-        <v>0.2022900763358779</v>
+        <v>0.0267175572519084</v>
       </c>
       <c r="E223">
-        <v>0.08278495634716268</v>
+        <v>0.02210952755257061</v>
       </c>
       <c r="F223">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="G223" t="s">
         <v>228</v>
       </c>
       <c r="H223">
-        <v>23</v>
+        <v>3</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6987,25 +6987,25 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>0</v>
+        <v>0.00277512758775371</v>
       </c>
       <c r="C224">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="D224">
-        <v>0.01145038167938931</v>
+        <v>0.2022900763358779</v>
       </c>
       <c r="E224">
-        <v>8.356193642873144e-20</v>
+        <v>0.08278495634716268</v>
       </c>
       <c r="F224">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G224" t="s">
         <v>229</v>
       </c>
       <c r="H224">
-        <v>3</v>
+        <v>23</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7013,25 +7013,25 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>0.0005465164524493466</v>
+        <v>0</v>
       </c>
       <c r="C225">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D225">
-        <v>0.04580152671755725</v>
+        <v>0.01145038167938931</v>
       </c>
       <c r="E225">
-        <v>0.02599161001636989</v>
+        <v>8.356193642873144e-20</v>
       </c>
       <c r="F225">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G225" t="s">
         <v>230</v>
       </c>
       <c r="H225">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7039,25 +7039,25 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>0.0005184482296966813</v>
+        <v>0.0005465164524493465</v>
       </c>
       <c r="C226">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D226">
-        <v>0.09923664122137404</v>
+        <v>0.04580152671755725</v>
       </c>
       <c r="E226">
-        <v>0.0411811849860723</v>
+        <v>0.02599161001636989</v>
       </c>
       <c r="F226">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G226" t="s">
         <v>231</v>
       </c>
       <c r="H226">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7065,25 +7065,25 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>0.003741634087005536</v>
+        <v>0.0005184482296966813</v>
       </c>
       <c r="C227">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D227">
-        <v>0.1183206106870229</v>
+        <v>0.09923664122137404</v>
       </c>
       <c r="E227">
-        <v>0.0726977305886447</v>
+        <v>0.0411811849860723</v>
       </c>
       <c r="F227">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G227" t="s">
         <v>232</v>
       </c>
       <c r="H227">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7091,25 +7091,25 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>0</v>
+        <v>0.003741634087005536</v>
       </c>
       <c r="C228">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="D228">
-        <v>0</v>
+        <v>0.1183206106870229</v>
       </c>
       <c r="E228">
-        <v>8.356193642873144e-20</v>
+        <v>0.0726977305886447</v>
       </c>
       <c r="F228">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G228" t="s">
         <v>233</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7120,22 +7120,22 @@
         <v>0</v>
       </c>
       <c r="C229">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D229">
-        <v>0.01526717557251908</v>
+        <v>0</v>
       </c>
       <c r="E229">
-        <v>0.004518944692602998</v>
+        <v>8.356193642873144e-20</v>
       </c>
       <c r="F229">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G229" t="s">
         <v>234</v>
       </c>
       <c r="H229">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7143,25 +7143,25 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>0.1585014977672244</v>
+        <v>0</v>
       </c>
       <c r="C230">
-        <v>273</v>
+        <v>4</v>
       </c>
       <c r="D230">
-        <v>1.041984732824427</v>
+        <v>0.01526717557251908</v>
       </c>
       <c r="E230">
-        <v>0.2668323664462416</v>
+        <v>0.004518944692602998</v>
       </c>
       <c r="F230">
-        <v>150</v>
+        <v>1</v>
       </c>
       <c r="G230" t="s">
         <v>235</v>
       </c>
       <c r="H230">
-        <v>123</v>
+        <v>3</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7169,25 +7169,25 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>0</v>
+        <v>0.1585014977672243</v>
       </c>
       <c r="C231">
-        <v>7</v>
+        <v>273</v>
       </c>
       <c r="D231">
-        <v>0.0267175572519084</v>
+        <v>1.041984732824427</v>
       </c>
       <c r="E231">
-        <v>0.002841065936638849</v>
+        <v>0.2668323664462417</v>
       </c>
       <c r="F231">
-        <v>2</v>
+        <v>150</v>
       </c>
       <c r="G231" t="s">
         <v>236</v>
       </c>
       <c r="H231">
-        <v>5</v>
+        <v>123</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7198,22 +7198,22 @@
         <v>0</v>
       </c>
       <c r="C232">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D232">
-        <v>0.03053435114503817</v>
+        <v>0.0267175572519084</v>
       </c>
       <c r="E232">
-        <v>0.01678794275664951</v>
+        <v>0.002841065936638849</v>
       </c>
       <c r="F232">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G232" t="s">
         <v>237</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7224,13 +7224,13 @@
         <v>0</v>
       </c>
       <c r="C233">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D233">
-        <v>0.03435114503816794</v>
+        <v>0.03053435114503817</v>
       </c>
       <c r="E233">
-        <v>0.03946568343975052</v>
+        <v>0.01678794275664951</v>
       </c>
       <c r="F233">
         <v>6</v>
@@ -7239,7 +7239,7 @@
         <v>238</v>
       </c>
       <c r="H233">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7250,22 +7250,22 @@
         <v>0</v>
       </c>
       <c r="C234">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D234">
-        <v>0.01908396946564886</v>
+        <v>0.03435114503816794</v>
       </c>
       <c r="E234">
-        <v>8.356193642873144e-20</v>
+        <v>0.03946568343975052</v>
       </c>
       <c r="F234">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G234" t="s">
         <v>239</v>
       </c>
       <c r="H234">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7273,25 +7273,25 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>3.022803781967859e-05</v>
+        <v>0</v>
       </c>
       <c r="C235">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D235">
-        <v>0.03053435114503817</v>
+        <v>0.01908396946564886</v>
       </c>
       <c r="E235">
-        <v>3.42269691612084e-16</v>
+        <v>8.356193642873144e-20</v>
       </c>
       <c r="F235">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G235" t="s">
         <v>240</v>
       </c>
       <c r="H235">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7299,25 +7299,25 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>0</v>
+        <v>3.022803781967859e-05</v>
       </c>
       <c r="C236">
+        <v>8</v>
+      </c>
+      <c r="D236">
+        <v>0.03053435114503817</v>
+      </c>
+      <c r="E236">
+        <v>3.42269691612084e-16</v>
+      </c>
+      <c r="F236">
         <v>1</v>
-      </c>
-      <c r="D236">
-        <v>0.003816793893129771</v>
-      </c>
-      <c r="E236">
-        <v>8.356193642873144e-20</v>
-      </c>
-      <c r="F236">
-        <v>0</v>
       </c>
       <c r="G236" t="s">
         <v>241</v>
       </c>
       <c r="H236">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -7328,10 +7328,10 @@
         <v>0</v>
       </c>
       <c r="C237">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D237">
-        <v>0.01145038167938931</v>
+        <v>0.003816793893129771</v>
       </c>
       <c r="E237">
         <v>8.356193642873144e-20</v>
@@ -7343,7 +7343,7 @@
         <v>242</v>
       </c>
       <c r="H237">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7351,25 +7351,25 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>0.00123668368196044</v>
+        <v>0</v>
       </c>
       <c r="C238">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="D238">
-        <v>0.133587786259542</v>
+        <v>0.01145038167938931</v>
       </c>
       <c r="E238">
-        <v>0.03538919585869776</v>
+        <v>8.356193642873144e-20</v>
       </c>
       <c r="F238">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G238" t="s">
         <v>243</v>
       </c>
       <c r="H238">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -7377,25 +7377,25 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>0.01430358655363717</v>
+        <v>0.00123668368196044</v>
       </c>
       <c r="C239">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="D239">
-        <v>0.2709923664122137</v>
+        <v>0.133587786259542</v>
       </c>
       <c r="E239">
-        <v>0.1385286625274695</v>
+        <v>0.03538919585869776</v>
       </c>
       <c r="F239">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="G239" t="s">
         <v>244</v>
       </c>
       <c r="H239">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -7403,25 +7403,25 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>3.694625586187038e-05</v>
+        <v>0.01430358655363717</v>
       </c>
       <c r="C240">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="D240">
-        <v>0.04961832061068702</v>
+        <v>0.2709923664122137</v>
       </c>
       <c r="E240">
-        <v>0.03170104730378389</v>
+        <v>0.1385286625274695</v>
       </c>
       <c r="F240">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="G240" t="s">
         <v>245</v>
       </c>
       <c r="H240">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -7429,25 +7429,25 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>0</v>
+        <v>3.694625586187038e-05</v>
       </c>
       <c r="C241">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D241">
-        <v>0.01526717557251908</v>
+        <v>0.04961832061068702</v>
       </c>
       <c r="E241">
-        <v>0.01391343855435855</v>
+        <v>0.03170104730378389</v>
       </c>
       <c r="F241">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G241" t="s">
         <v>246</v>
       </c>
       <c r="H241">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -7455,25 +7455,25 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>0.008807575000299727</v>
+        <v>0</v>
       </c>
       <c r="C242">
-        <v>73</v>
+        <v>4</v>
       </c>
       <c r="D242">
-        <v>0.2786259541984732</v>
+        <v>0.01526717557251908</v>
       </c>
       <c r="E242">
-        <v>0.1289677651457418</v>
+        <v>0.01391343855435855</v>
       </c>
       <c r="F242">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="G242" t="s">
         <v>247</v>
       </c>
       <c r="H242">
-        <v>33</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -7481,25 +7481,25 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>0.05581678749944186</v>
+        <v>0.008807575000299727</v>
       </c>
       <c r="C243">
-        <v>176</v>
+        <v>73</v>
       </c>
       <c r="D243">
-        <v>0.6717557251908397</v>
+        <v>0.2786259541984732</v>
       </c>
       <c r="E243">
-        <v>0.1831077111321228</v>
+        <v>0.1289677651457418</v>
       </c>
       <c r="F243">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="G243" t="s">
         <v>248</v>
       </c>
       <c r="H243">
-        <v>92</v>
+        <v>33</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -7507,25 +7507,25 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>6.979926395088525e-05</v>
+        <v>0.05581678749944186</v>
       </c>
       <c r="C244">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="D244">
-        <v>0.0648854961832061</v>
+        <v>0.6717557251908397</v>
       </c>
       <c r="E244">
-        <v>0.05368199188612781</v>
+        <v>0.1831077111321228</v>
       </c>
       <c r="F244">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="G244" t="s">
         <v>249</v>
       </c>
       <c r="H244">
-        <v>6</v>
+        <v>92</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -7533,25 +7533,25 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>0.01036948309932919</v>
+        <v>6.979926395088525e-05</v>
       </c>
       <c r="C245">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="D245">
-        <v>0.1488549618320611</v>
+        <v>0.0648854961832061</v>
       </c>
       <c r="E245">
-        <v>0.05734397533048805</v>
+        <v>0.05368199188612781</v>
       </c>
       <c r="F245">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="G245" t="s">
         <v>250</v>
       </c>
       <c r="H245">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -7559,25 +7559,25 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>0.007132067322854517</v>
+        <v>0.01036948309932919</v>
       </c>
       <c r="C246">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="D246">
-        <v>0.2786259541984732</v>
+        <v>0.1488549618320611</v>
       </c>
       <c r="E246">
-        <v>0.1344003084807016</v>
+        <v>0.05734397533048805</v>
       </c>
       <c r="F246">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="G246" t="s">
         <v>251</v>
       </c>
       <c r="H246">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -7585,25 +7585,25 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>0</v>
+        <v>0.007132067322854517</v>
       </c>
       <c r="C247">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="D247">
-        <v>0.02290076335877863</v>
+        <v>0.2786259541984732</v>
       </c>
       <c r="E247">
-        <v>0.02461202708888775</v>
+        <v>0.1344003084807016</v>
       </c>
       <c r="F247">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="G247" t="s">
         <v>252</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -7611,25 +7611,25 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>3.669178981332065e-06</v>
+        <v>0</v>
       </c>
       <c r="C248">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D248">
-        <v>0.03435114503816794</v>
+        <v>0.02290076335877863</v>
       </c>
       <c r="E248">
-        <v>0.0009659012997218717</v>
+        <v>0.02461202708888775</v>
       </c>
       <c r="F248">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G248" t="s">
         <v>253</v>
       </c>
       <c r="H248">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -7637,7 +7637,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>8.859988737191047e-06</v>
+        <v>3.669178981332065e-06</v>
       </c>
       <c r="C249">
         <v>9</v>
@@ -7646,7 +7646,7 @@
         <v>0.03435114503816794</v>
       </c>
       <c r="E249">
-        <v>0.01057540554650686</v>
+        <v>0.0009659012997218717</v>
       </c>
       <c r="F249">
         <v>2</v>
@@ -7663,25 +7663,25 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>0</v>
+        <v>8.859988737191047e-06</v>
       </c>
       <c r="C250">
+        <v>9</v>
+      </c>
+      <c r="D250">
+        <v>0.03435114503816794</v>
+      </c>
+      <c r="E250">
+        <v>0.01057540554650686</v>
+      </c>
+      <c r="F250">
         <v>2</v>
-      </c>
-      <c r="D250">
-        <v>0.007633587786259542</v>
-      </c>
-      <c r="E250">
-        <v>8.356193642873144e-20</v>
-      </c>
-      <c r="F250">
-        <v>0</v>
       </c>
       <c r="G250" t="s">
         <v>255</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -7689,25 +7689,25 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>0.0001953771603617957</v>
+        <v>0</v>
       </c>
       <c r="C251">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D251">
-        <v>0.08396946564885496</v>
+        <v>0.007633587786259542</v>
       </c>
       <c r="E251">
-        <v>0.02803356811311239</v>
+        <v>8.356193642873144e-20</v>
       </c>
       <c r="F251">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G251" t="s">
         <v>256</v>
       </c>
       <c r="H251">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -7715,25 +7715,25 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>0</v>
+        <v>0.0001953771603617957</v>
       </c>
       <c r="C252">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D252">
-        <v>0</v>
+        <v>0.08396946564885496</v>
       </c>
       <c r="E252">
-        <v>8.356193642873144e-20</v>
+        <v>0.02803356811311239</v>
       </c>
       <c r="F252">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G252" t="s">
         <v>257</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -7741,25 +7741,25 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>0.009639706782084992</v>
+        <v>0</v>
       </c>
       <c r="C253">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="D253">
-        <v>0.3091603053435115</v>
+        <v>0</v>
       </c>
       <c r="E253">
-        <v>0.1410686146815536</v>
+        <v>8.356193642873144e-20</v>
       </c>
       <c r="F253">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="G253" t="s">
         <v>258</v>
       </c>
       <c r="H253">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>0.07251908396946564</v>
       </c>
       <c r="E254">
-        <v>0.04024296131059472</v>
+        <v>0.04024296131059473</v>
       </c>
       <c r="F254">
         <v>10</v>
@@ -7802,7 +7802,7 @@
         <v>0.03053435114503817</v>
       </c>
       <c r="E255">
-        <v>0.006299569182471659</v>
+        <v>0.006299569182471661</v>
       </c>
       <c r="F255">
         <v>2</v>
@@ -7871,7 +7871,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>0.0004803286956563966</v>
+        <v>0.0004803286956563967</v>
       </c>
       <c r="C258">
         <v>31</v>
@@ -7880,7 +7880,7 @@
         <v>0.1183206106870229</v>
       </c>
       <c r="E258">
-        <v>0.06669271330973893</v>
+        <v>0.06669271330973892</v>
       </c>
       <c r="F258">
         <v>17</v>
@@ -7949,7 +7949,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>0.003106453012898656</v>
+        <v>0.003106453012898655</v>
       </c>
       <c r="C261">
         <v>38</v>
@@ -7958,7 +7958,7 @@
         <v>0.1450381679389313</v>
       </c>
       <c r="E261">
-        <v>0.08005054696946122</v>
+        <v>0.08005054696946123</v>
       </c>
       <c r="F261">
         <v>20</v>
@@ -7984,7 +7984,7 @@
         <v>0.02290076335877863</v>
       </c>
       <c r="E262">
-        <v>0.006259633290656286</v>
+        <v>0.006259633290656287</v>
       </c>
       <c r="F262">
         <v>1</v>
